--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -404,10 +404,10 @@
     <t>0x10</t>
   </si>
   <si>
-    <t>DAT_ACC_MEAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACC measurement</t>
+    <t>DAT_ACC</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
   </si>
   <si>
     <t>float[3]</t>
@@ -434,46 +434,37 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ACC measurement in FC global frame</t>
-  </si>
-  <si>
     <t>0x11</t>
   </si>
   <si>
-    <t>DAT_GYRO_MEAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYRO measurement</t>
+    <t>DAT_GYRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular velocity</t>
   </si>
   <si>
     <t>rad/s</t>
   </si>
   <si>
-    <t xml:space="preserve">GYRO measurement in FC global frame</t>
-  </si>
-  <si>
     <t>0x12</t>
   </si>
   <si>
-    <t>DAT_MAG_MEAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAG measurement</t>
+    <t>DAT_MAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetic field</t>
   </si>
   <si>
     <t>mG</t>
   </si>
   <si>
-    <t xml:space="preserve">MAG measurement in FC global frame</t>
-  </si>
-  <si>
     <t>0x13</t>
   </si>
   <si>
-    <t>DAT_BARO_MEAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARO measurement</t>
+    <t>DAT_PRES</t>
+  </si>
+  <si>
+    <t>Pressure</t>
   </si>
   <si>
     <t>float</t>
@@ -482,22 +473,31 @@
     <t>Pa</t>
   </si>
   <si>
-    <t xml:space="preserve">Pressure measured by BARO</t>
-  </si>
-  <si>
     <t>0x14</t>
   </si>
   <si>
+    <t>DAT_TEMP</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>0x15</t>
+  </si>
+  <si>
     <t>DAT_RAW_ACC_MEAS</t>
   </si>
   <si>
     <t xml:space="preserve">Raw ACC measurement</t>
   </si>
   <si>
-    <t xml:space="preserve">ACC measurement in sensor local frame</t>
-  </si>
-  <si>
-    <t>0x15</t>
+    <t xml:space="preserve">Raw ACC measurement without calibration in sensor frame</t>
+  </si>
+  <si>
+    <t>0x16</t>
   </si>
   <si>
     <t>DAT_RAW_GYRO_MEAS</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">Raw GYRO measurement</t>
   </si>
   <si>
-    <t xml:space="preserve">GYRO measurement in sensor local frame</t>
-  </si>
-  <si>
-    <t>0x16</t>
+    <t xml:space="preserve">Raw GYRO measurement without calibration in sensor frame</t>
+  </si>
+  <si>
+    <t>0x17</t>
   </si>
   <si>
     <t>DAT_RAW_MAG_MEAS</t>
@@ -518,22 +518,7 @@
     <t xml:space="preserve">Raw MAG measurement</t>
   </si>
   <si>
-    <t xml:space="preserve">MAG measurement in sensor local frame</t>
-  </si>
-  <si>
-    <t>0x17</t>
-  </si>
-  <si>
-    <t>DAT_TEMP</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature measured by BARO</t>
+    <t xml:space="preserve">Raw MAG measurement without calibration in sensor frame</t>
   </si>
   <si>
     <t>0x20</t>
@@ -560,7 +545,7 @@
     <t xml:space="preserve">KF acceleration</t>
   </si>
   <si>
-    <t xml:space="preserve">Acceleration in inertial frame calculated from KF RPY and ACC measurement</t>
+    <t xml:space="preserve">Acceleration in inertial frame calculated from KF RPY and acceleration</t>
   </si>
   <si>
     <t>0x22</t>
@@ -971,68 +956,68 @@
     <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2221,34 +2206,34 @@
       <c r="G18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="22"/>
     </row>
     <row r="23" ht="14.25">
@@ -2420,7 +2405,7 @@
     <col customWidth="1" min="4" max="4" style="22" width="13.7109375"/>
     <col customWidth="1" min="5" max="5" style="22" width="18.28125"/>
     <col min="6" max="7" style="22" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="39" width="54.8515625"/>
+    <col customWidth="1" min="8" max="8" style="38" width="54.8515625"/>
     <col min="9" max="16384" style="22" width="9.140625"/>
   </cols>
   <sheetData>
@@ -2433,7 +2418,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="40"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" s="26" t="s">
@@ -2454,30 +2439,30 @@
       <c r="G3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="28.5">
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <v>0</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>1</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="43" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2500,18 +2485,18 @@
       <c r="G5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" ht="14.25">
       <c r="C7" s="22"/>
@@ -2519,7 +2504,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="39"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" s="15" t="s">
@@ -2541,11 +2526,11 @@
         <v>46</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="B10" s="31" t="s">
@@ -2556,13 +2541,13 @@
         <v>98</v>
       </c>
       <c r="E10" s="31"/>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="49" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2575,11 +2560,11 @@
         <v>102</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="22"/>
@@ -2602,15 +2587,15 @@
         <v>107</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" ht="14.25">
       <c r="B14" s="17" t="s">
@@ -2664,7 +2649,7 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="39"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" s="22"/>
@@ -2673,7 +2658,7 @@
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="39"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" ht="14.25">
       <c r="B19" s="22"/>
@@ -2682,7 +2667,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="39"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" ht="14.25">
       <c r="B20" s="22"/>
@@ -2691,7 +2676,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" ht="14.25">
       <c r="B21" s="22"/>
@@ -2700,7 +2685,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="39"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" ht="14.25">
       <c r="B22" s="22"/>
@@ -2709,7 +2694,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="39"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" s="22"/>
@@ -2718,7 +2703,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" ht="14.25">
       <c r="B24" s="22"/>
@@ -2727,7 +2712,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2779,7 +2764,7 @@
     <col customWidth="1" min="5" max="5" style="22" width="27.421875"/>
     <col customWidth="1" min="6" max="6" style="22" width="13.7109375"/>
     <col min="7" max="7" style="22" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="39" width="54.8515625"/>
+    <col customWidth="1" min="8" max="8" style="38" width="64.00390625"/>
     <col min="9" max="16384" style="22" width="9.140625"/>
   </cols>
   <sheetData>
@@ -2792,7 +2777,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="40"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" s="26" t="s">
@@ -2813,7 +2798,7 @@
       <c r="G3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="40" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2833,10 +2818,10 @@
       <c r="F4" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2847,16 +2832,16 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="39"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" s="15" t="s">
@@ -2867,7 +2852,7 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="55"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" s="16" t="s">
@@ -2888,7 +2873,7 @@
       <c r="G8" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="55" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2900,10 +2885,10 @@
       <c r="C9" s="31">
         <v>12</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="56" t="s">
         <v>128</v>
       </c>
       <c r="F9" s="31" t="s">
@@ -2912,206 +2897,196 @@
       <c r="G9" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="37" t="s">
-        <v>131</v>
-      </c>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="31">
         <v>12</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="56" t="s">
         <v>133</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>134</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="31">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>139</v>
+      <c r="D11" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>137</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>141</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C12" s="31">
         <v>4</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="C13" s="31">
+        <v>4</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="E13" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="F13" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="B13" s="31" t="s">
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="B14" s="56" t="s">
         <v>148</v>
-      </c>
-      <c r="C13" s="31">
-        <v>12</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="B14" s="31" t="s">
-        <v>152</v>
       </c>
       <c r="C14" s="31">
         <v>12</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>155</v>
+        <v>130</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="31" t="s">
-        <v>156</v>
+      <c r="B15" s="56" t="s">
+        <v>152</v>
       </c>
       <c r="C15" s="31">
         <v>12</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>159</v>
+        <v>134</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="57" t="s">
-        <v>160</v>
+      <c r="B16" s="56" t="s">
+        <v>156</v>
       </c>
       <c r="C16" s="31">
         <v>12</v>
       </c>
-      <c r="D16" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="57" t="s">
+      <c r="D16" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>164</v>
+      <c r="G16" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" s="31" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C17" s="31">
         <v>12</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="18" ht="28.5">
       <c r="B18" s="31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C18" s="31">
         <v>12</v>
       </c>
-      <c r="D18" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>172</v>
+      <c r="D18" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>167</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>129</v>
@@ -3119,100 +3094,100 @@
       <c r="G18" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="37" t="s">
-        <v>173</v>
+      <c r="H18" s="57" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="B19" s="31" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C19" s="31">
         <v>12</v>
       </c>
-      <c r="D19" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>176</v>
+      <c r="D19" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>171</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>178</v>
+        <v>172</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="B20" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C20" s="31">
         <v>12</v>
       </c>
-      <c r="D20" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>181</v>
+      <c r="D20" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>176</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>183</v>
+        <v>177</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="B21" s="31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C21" s="31">
         <v>12</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>186</v>
+      <c r="D21" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>181</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>187</v>
+        <v>163</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="B22" s="31" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C22" s="31">
         <v>4</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="23" ht="14.25">
@@ -3222,7 +3197,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" ht="14.25">
       <c r="B24" s="22"/>
@@ -3231,7 +3206,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" ht="14.25">
       <c r="B25" s="22"/>
@@ -3240,16 +3215,17 @@
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="H26" s="39"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="H27" s="39"/>
-    </row>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" ht="14.25"/>
     <row r="28" ht="14.25">
-      <c r="H28" s="39"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="C35" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -401,7 +401,7 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>0x10</t>
+    <t>0x00</t>
   </si>
   <si>
     <t>DAT_ACC</t>
@@ -434,169 +434,190 @@
     </r>
   </si>
   <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>DAT_ANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular velocity</t>
+  </si>
+  <si>
+    <t>rad/s</t>
+  </si>
+  <si>
+    <t>DAT_MAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetic field</t>
+  </si>
+  <si>
+    <t>mG</t>
+  </si>
+  <si>
+    <t>DAT_PRES</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>DAT_TEMP</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>DAT_RAW_ACC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw acceleration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw ACC measurement without calibration in sensor frame</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>DAT_RAW_ANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw angular velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw GYRO measurement without calibration in sensor frame</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>DAT_RAW_MAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw magnetic field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw MAG measurement without calibration in sensor frame</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>DAT_KF_QUAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KF quaternion</t>
+  </si>
+  <si>
+    <t>float[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalman-filtered quaternion</t>
+  </si>
+  <si>
     <t>0x11</t>
   </si>
   <si>
-    <t>DAT_GYRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular velocity</t>
-  </si>
-  <si>
-    <t>rad/s</t>
+    <t>DAT_KF_RPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KF RPY</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalman-filtered RPY</t>
   </si>
   <si>
     <t>0x12</t>
   </si>
   <si>
-    <t>DAT_MAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnetic field</t>
-  </si>
-  <si>
-    <t>mG</t>
+    <t>DAT_KF_VEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KF velocity</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalman-filtered velocity in inertial frame</t>
   </si>
   <si>
     <t>0x13</t>
   </si>
   <si>
-    <t>DAT_PRES</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Pa</t>
+    <t>DAT_KF_POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KF Position</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalman-filtered position in inertial frame</t>
   </si>
   <si>
     <t>0x14</t>
   </si>
   <si>
-    <t>DAT_TEMP</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>°C</t>
+    <t>DAT_EXT_ACC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External acceleration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External acceleration (acceleration - gravity)</t>
   </si>
   <si>
     <t>0x15</t>
   </si>
   <si>
-    <t>DAT_RAW_ACC_MEAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw ACC measurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw ACC measurement without calibration in sensor frame</t>
+    <t>DAT_ACC_MAG_QUAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quaternion measurment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quaternion calculated from ACC and MAG measurements</t>
   </si>
   <si>
     <t>0x16</t>
   </si>
   <si>
-    <t>DAT_RAW_GYRO_MEAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw GYRO measurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw GYRO measurement without calibration in sensor frame</t>
+    <t>DAT_ACC_MAG_RPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPY measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPY calculated from ACC and MAG measurements</t>
   </si>
   <si>
     <t>0x17</t>
   </si>
   <si>
-    <t>DAT_RAW_MAG_MEAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw MAG measurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw MAG measurement without calibration in sensor frame</t>
-  </si>
-  <si>
-    <t>0x20</t>
-  </si>
-  <si>
-    <t>DAT_KF_RPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF RPY</t>
-  </si>
-  <si>
-    <t>rad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPY calculated by KF</t>
-  </si>
-  <si>
-    <t>0x21</t>
-  </si>
-  <si>
-    <t>DAT_KF_ACC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF acceleration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceleration in inertial frame calculated from KF RPY and acceleration</t>
-  </si>
-  <si>
-    <t>0x22</t>
-  </si>
-  <si>
-    <t>DAT_KF_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF velocity</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocity in inertial frame calculated by KF</t>
-  </si>
-  <si>
-    <t>0x23</t>
-  </si>
-  <si>
-    <t>DAT_KF_POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF Position</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position in inertial frame calculated by KF</t>
-  </si>
-  <si>
-    <t>0x24</t>
-  </si>
-  <si>
-    <t>DAT_ACC_RPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACC RPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPY calculated from ACC measurement</t>
-  </si>
-  <si>
-    <t>0x25</t>
-  </si>
-  <si>
     <t>DAT_BARO_HEIGHT</t>
   </si>
   <si>
-    <t xml:space="preserve">BARO height</t>
+    <t xml:space="preserve">Height measurement</t>
   </si>
   <si>
     <t xml:space="preserve">Height in inertial frame calculated from BARO measurement</t>
@@ -854,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1012,12 +1033,6 @@
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2231,7 +2246,6 @@
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="22"/>
@@ -2885,10 +2899,10 @@
       <c r="C9" s="31">
         <v>12</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="31" t="s">
         <v>128</v>
       </c>
       <c r="F9" s="31" t="s">
@@ -2906,10 +2920,10 @@
       <c r="C10" s="31">
         <v>12</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F10" s="31" t="s">
@@ -2922,79 +2936,79 @@
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="31" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="C11" s="31">
         <v>12</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>137</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="34"/>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" s="31" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="C12" s="31">
         <v>4</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="G12" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="31" t="s">
         <v>142</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="B13" s="56" t="s">
-        <v>144</v>
       </c>
       <c r="C13" s="31">
         <v>4</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="B14" s="31" t="s">
         <v>146</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="56" t="s">
-        <v>148</v>
       </c>
       <c r="C14" s="31">
         <v>12</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>129</v>
@@ -3002,22 +3016,22 @@
       <c r="G14" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="57" t="s">
-        <v>151</v>
+      <c r="H14" s="34" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="56" t="s">
-        <v>152</v>
+      <c r="B15" s="31" t="s">
+        <v>150</v>
       </c>
       <c r="C15" s="31">
         <v>12</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>129</v>
@@ -3025,207 +3039,248 @@
       <c r="G15" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="H15" s="57" t="s">
-        <v>155</v>
+      <c r="H15" s="34" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="56" t="s">
-        <v>156</v>
+      <c r="B16" s="31" t="s">
+        <v>154</v>
       </c>
       <c r="C16" s="31">
         <v>12</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="57" t="s">
-        <v>159</v>
+        <v>137</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="31">
+        <v>16</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="31">
-        <v>12</v>
-      </c>
-      <c r="D17" s="31" t="s">
+      <c r="F17" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="G17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="31" t="s">
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="31" t="s">
         <v>163</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5">
-      <c r="B18" s="31" t="s">
-        <v>165</v>
       </c>
       <c r="C18" s="31">
         <v>12</v>
       </c>
-      <c r="D18" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>167</v>
+      <c r="D18" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>165</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="57" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="B19" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" s="31">
         <v>12</v>
       </c>
       <c r="D19" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="51" t="s">
         <v>170</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>171</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G19" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>172</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="B20" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="31">
         <v>12</v>
       </c>
       <c r="D20" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="51" t="s">
         <v>175</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>176</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G20" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>177</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="B21" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" s="31">
         <v>12</v>
       </c>
       <c r="D21" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="51" t="s">
         <v>180</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>181</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="B22" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="31">
+        <v>16</v>
+      </c>
+      <c r="D22" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="31">
+      <c r="E22" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="31">
+        <v>12</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="31">
         <v>4</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="38"/>
+      <c r="D24" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="25" ht="14.25">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="38"/>
     </row>
     <row r="26" ht="14.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" ht="14.25"/>
+    <row r="27" ht="14.25">
+      <c r="B27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="H27" s="38"/>
+    </row>
     <row r="28" ht="14.25">
       <c r="H28" s="38"/>
     </row>
-    <row r="35" ht="14.25">
-      <c r="C35" s="38"/>
+    <row r="29" ht="14.25"/>
+    <row r="30" ht="14.25">
+      <c r="H30" s="38"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="C37" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -455,31 +455,7 @@
     <t>mG</t>
   </si>
   <si>
-    <t>DAT_PRES</t>
-  </si>
-  <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Pa</t>
-  </si>
-  <si>
-    <t>0x04</t>
-  </si>
-  <si>
-    <t>DAT_TEMP</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>0x05</t>
+    <t>0x08</t>
   </si>
   <si>
     <t>DAT_RAW_ACC</t>
@@ -491,7 +467,7 @@
     <t xml:space="preserve">Raw ACC measurement without calibration in sensor frame</t>
   </si>
   <si>
-    <t>0x06</t>
+    <t>0x09</t>
   </si>
   <si>
     <t>DAT_RAW_ANG</t>
@@ -503,7 +479,7 @@
     <t xml:space="preserve">Raw GYRO measurement without calibration in sensor frame</t>
   </si>
   <si>
-    <t>0x07</t>
+    <t>0x0A</t>
   </si>
   <si>
     <t>DAT_RAW_MAG</t>
@@ -545,49 +521,7 @@
     <t xml:space="preserve">Kalman-filtered RPY</t>
   </si>
   <si>
-    <t>0x12</t>
-  </si>
-  <si>
-    <t>DAT_KF_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF velocity</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalman-filtered velocity in inertial frame</t>
-  </si>
-  <si>
-    <t>0x13</t>
-  </si>
-  <si>
-    <t>DAT_KF_POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF Position</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalman-filtered position in inertial frame</t>
-  </si>
-  <si>
-    <t>0x14</t>
-  </si>
-  <si>
-    <t>DAT_EXT_ACC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External acceleration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External acceleration (acceleration - gravity)</t>
-  </si>
-  <si>
-    <t>0x15</t>
+    <t>0x18</t>
   </si>
   <si>
     <t>DAT_ACC_MAG_QUAT</t>
@@ -599,7 +533,7 @@
     <t xml:space="preserve">Quaternion calculated from ACC and MAG measurements</t>
   </si>
   <si>
-    <t>0x16</t>
+    <t>0x19</t>
   </si>
   <si>
     <t>DAT_ACC_MAG_RPY</t>
@@ -609,18 +543,6 @@
   </si>
   <si>
     <t xml:space="preserve">RPY calculated from ACC and MAG measurements</t>
-  </si>
-  <si>
-    <t>0x17</t>
-  </si>
-  <si>
-    <t>DAT_BARO_HEIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height measurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height in inertial frame calculated from BARO measurement</t>
   </si>
 </sst>
 </file>
@@ -875,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1033,6 +955,9 @@
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2955,33 +2880,35 @@
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" ht="14.25">
-      <c r="B12" s="31" t="s">
-        <v>42</v>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="B12" s="56" t="s">
+        <v>138</v>
       </c>
       <c r="C12" s="31">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G12" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="34"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="56" t="s">
         <v>142</v>
       </c>
       <c r="C13" s="31">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>143</v>
@@ -2990,15 +2917,17 @@
         <v>144</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G13" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="31" t="s">
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="56" t="s">
         <v>146</v>
       </c>
       <c r="C14" s="31">
@@ -3014,7 +2943,7 @@
         <v>129</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>149</v>
@@ -3025,7 +2954,7 @@
         <v>150</v>
       </c>
       <c r="C15" s="31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>151</v>
@@ -3034,253 +2963,115 @@
         <v>152</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="31" t="s">
-        <v>154</v>
+      <c r="B16" s="56" t="s">
+        <v>155</v>
       </c>
       <c r="C16" s="31">
         <v>12</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="31" t="s">
-        <v>158</v>
+      <c r="B17" s="56" t="s">
+        <v>160</v>
       </c>
       <c r="C17" s="31">
         <v>16</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>160</v>
+      <c r="D17" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>162</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="31" t="s">
-        <v>163</v>
+      <c r="B18" s="56" t="s">
+        <v>164</v>
       </c>
       <c r="C18" s="31">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="31" t="s">
+      <c r="D18" s="51" t="s">
         <v>165</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>166</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>129</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H18" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="31">
-        <v>12</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>172</v>
-      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="31">
-        <v>12</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>177</v>
-      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="31">
-        <v>12</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>181</v>
-      </c>
+      <c r="B21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="31">
-        <v>16</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="B23" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="31">
-        <v>12</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" ht="14.25"/>
     <row r="24" ht="14.25">
-      <c r="B24" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="31">
-        <v>4</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="B27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" ht="14.25"/>
-    <row r="30" ht="14.25">
-      <c r="H30" s="38"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="C37" s="38"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="C31" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -46,22 +46,16 @@
     <t>Magnetometer</t>
   </si>
   <si>
-    <t>BARO</t>
-  </si>
-  <si>
-    <t>Barometer</t>
-  </si>
-  <si>
     <t>RPY</t>
   </si>
   <si>
     <t xml:space="preserve">Roll, pitch, yaw angle</t>
   </si>
   <si>
-    <t>KF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalman filter</t>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse width modulation</t>
   </si>
   <si>
     <t xml:space="preserve">Protocol Structure</t>
@@ -106,7 +100,7 @@
     <t xml:space="preserve">0 -- 255</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to packet type list</t>
+    <t xml:space="preserve">Refer to the packet type list</t>
   </si>
   <si>
     <t>LEN</t>
@@ -196,7 +190,7 @@
     <t xml:space="preserve">Command ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to command list</t>
+    <t xml:space="preserve">Refer to the command list</t>
   </si>
   <si>
     <t xml:space="preserve">LEN - 1</t>
@@ -259,7 +253,7 @@
     <t xml:space="preserve">Streaming data ID 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to streaming data list
+    <t xml:space="preserve">Refer to the streaming data list
 default: no streaming data</t>
   </si>
   <si>
@@ -285,6 +279,140 @@
 default: off</t>
   </si>
   <si>
+    <t>0xB1</t>
+  </si>
+  <si>
+    <t>CMD_ESC_PRTCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refer to the ESC protocol list
+default: Standard PWM</t>
+  </si>
+  <si>
+    <t>0xB2</t>
+  </si>
+  <si>
+    <t>CMD_PWM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM on/off</t>
+  </si>
+  <si>
+    <t>CMD_THROT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front left throttle</t>
+  </si>
+  <si>
+    <t>uint16_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -- 10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit: 0.01%
+default: 0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front right throttle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rear left throttle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rear right throttle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC Protocol List</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buad Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse Width (us)</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>ESC_PRTCL_STD_PWM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 -- 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard PWM</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>ESC_PRTCL_ONESHOT125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125 -- 250</t>
+  </si>
+  <si>
+    <t>OneShot125</t>
+  </si>
+  <si>
+    <t>ESC_PRTCL_ONESHOT42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 -- 84</t>
+  </si>
+  <si>
+    <t>OneShot42</t>
+  </si>
+  <si>
+    <t>ESC_PRTCL_DSHOT150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150 kbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: 2.50; 1: 5.00</t>
+  </si>
+  <si>
+    <t>DShot150</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>ESC_PRTCL_DSHOT300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 kbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: 1.25; 1: 2.50</t>
+  </si>
+  <si>
+    <t>DShot300</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>ESC_PRTCL_DSHOT600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 kbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: 0.625; 1: 1.25</t>
+  </si>
+  <si>
+    <t>DShot600</t>
+  </si>
+  <si>
     <t>RSP</t>
   </si>
   <si>
@@ -399,9 +527,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>0x00</t>
   </si>
   <si>
     <t>DAT_ACC</t>
@@ -432,9 +557,6 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>0x01</t>
   </si>
   <si>
     <t>DAT_ANG</t>
@@ -603,7 +725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -758,6 +880,28 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -797,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,36 +1043,57 @@
     <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -941,13 +1106,7 @@
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,9 +1114,6 @@
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,20 +1678,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="14.25">
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1568,7 +1716,7 @@
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1579,25 +1727,25 @@
     </row>
     <row r="3" ht="14.25">
       <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -1608,16 +1756,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -1629,19 +1777,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" ht="18">
@@ -1652,16 +1800,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -1670,91 +1818,91 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="11"/>
     </row>
     <row r="8" ht="135.75">
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="18">
       <c r="B10" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="14"/>
     </row>
     <row r="11" ht="14.25"/>
     <row r="13" ht="14.25">
       <c r="B13" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1765,10 +1913,10 @@
     </row>
     <row r="14" ht="14.25">
       <c r="B14" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="2" t="s">
@@ -1780,14 +1928,14 @@
     </row>
     <row r="15" ht="14.25">
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
@@ -1795,14 +1943,14 @@
     </row>
     <row r="16" ht="14.25">
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
@@ -1810,14 +1958,14 @@
     </row>
     <row r="17" ht="14.25">
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
@@ -1854,16 +2002,16 @@
   <cols>
     <col min="1" max="2" style="22" width="9.140625"/>
     <col customWidth="1" min="3" max="3" style="22" width="9.140625"/>
-    <col customWidth="1" min="4" max="4" style="22" width="18.28125"/>
+    <col customWidth="1" min="4" max="4" style="22" width="24.00390625"/>
     <col customWidth="1" min="5" max="5" style="22" width="22.8515625"/>
-    <col min="6" max="7" style="22" width="9.140625"/>
+    <col customWidth="1" min="6" max="7" style="22" width="9.140625"/>
     <col customWidth="1" min="8" max="8" style="22" width="54.8515625"/>
     <col min="9" max="16384" style="22" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1874,25 +2022,25 @@
     </row>
     <row r="3" ht="14.25">
       <c r="B3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -1903,19 +2051,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>57</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -1923,19 +2071,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="28"/>
     </row>
@@ -1959,7 +2107,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="B8" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -1970,10 +2118,10 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -1984,114 +2132,114 @@
     <row r="10" ht="14.25">
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="31">
         <v>1</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="G11" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="H11" s="32" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="31">
         <v>1</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="32" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="31">
         <v>1</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="32" t="s">
         <v>67</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="B14" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="E14" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="F14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>78</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" ht="14.25">
@@ -2099,7 +2247,7 @@
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -2110,7 +2258,7 @@
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -2121,7 +2269,7 @@
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
@@ -2129,81 +2277,139 @@
     </row>
     <row r="18" ht="28.5">
       <c r="B18" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="31">
         <v>1</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="31" t="s">
+    </row>
+    <row r="19" ht="28.5">
+      <c r="B19" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="34" t="s">
+      <c r="C19" s="31">
+        <v>1</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="E19" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5">
+      <c r="B20" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="22"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="22"/>
+      <c r="B21" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="31">
+        <v>8</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="22"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -2213,6 +2419,7 @@
       <c r="H26" s="22"/>
     </row>
     <row r="27" ht="14.25">
+      <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -2222,77 +2429,158 @@
       <c r="H27" s="22"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
+      <c r="B29" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="42" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
+      <c r="B31" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="H31" s="32" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
+      <c r="B32" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="32" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="B33" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="B34" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="B35" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="47" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="36" ht="14.25">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" ht="14.25">
       <c r="B37" s="22"/>
@@ -2303,15 +2591,30 @@
       <c r="G37" s="22"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
     </row>
+    <row r="39" ht="14.25">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="32">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B8:H8"/>
@@ -2323,6 +2626,27 @@
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="H14:H17"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2344,65 +2668,65 @@
     <col customWidth="1" min="4" max="4" style="22" width="13.7109375"/>
     <col customWidth="1" min="5" max="5" style="22" width="18.28125"/>
     <col min="6" max="7" style="22" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="38" width="54.8515625"/>
+    <col customWidth="1" min="8" max="8" style="48" width="54.8515625"/>
     <col min="9" max="16384" style="22" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="39"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" ht="28.5">
-      <c r="B4" s="41">
+      <c r="B4" s="51">
         <v>0</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="51">
         <v>1</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>91</v>
+      <c r="D4" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -2413,29 +2737,29 @@
         <v>1</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" ht="14.25">
       <c r="C7" s="22"/>
@@ -2443,11 +2767,11 @@
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="38"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" s="15" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -2458,125 +2782,125 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="16" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="B10" s="31" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="E10" s="31"/>
-      <c r="F10" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>100</v>
+      <c r="F10" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="17" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="F11" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="22"/>
       <c r="B12" s="17" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="31" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="32" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" s="17" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="D13" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
     </row>
     <row r="14" ht="14.25">
       <c r="B14" s="17" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="31" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="32" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
     </row>
     <row r="15" ht="14.25">
       <c r="B15" s="17" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="31" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="32" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="32" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
@@ -2588,7 +2912,7 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="38"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" s="22"/>
@@ -2597,7 +2921,7 @@
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="38"/>
+      <c r="H18" s="48"/>
     </row>
     <row r="19" ht="14.25">
       <c r="B19" s="22"/>
@@ -2606,7 +2930,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="38"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" ht="14.25">
       <c r="B20" s="22"/>
@@ -2615,7 +2939,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" ht="14.25">
       <c r="B21" s="22"/>
@@ -2624,7 +2948,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="38"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" ht="14.25">
       <c r="B22" s="22"/>
@@ -2633,7 +2957,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="38"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" s="22"/>
@@ -2642,7 +2966,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="38"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" ht="14.25">
       <c r="B24" s="22"/>
@@ -2651,7 +2975,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="38"/>
+      <c r="H24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2703,42 +3027,42 @@
     <col customWidth="1" min="5" max="5" style="22" width="27.421875"/>
     <col customWidth="1" min="6" max="6" style="22" width="13.7109375"/>
     <col min="7" max="7" style="22" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="38" width="64.00390625"/>
+    <col customWidth="1" min="8" max="8" style="48" width="64.00390625"/>
     <col min="9" max="16384" style="22" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="39"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="50" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -2746,22 +3070,22 @@
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>122</v>
+        <v>163</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -2771,274 +3095,274 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="38"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" s="15" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="54"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" s="16" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="60" t="s">
         <v>19</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="22"/>
       <c r="B9" s="31" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C9" s="31">
         <v>12</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="H9" s="34"/>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" s="31" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C10" s="31">
         <v>12</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="H10" s="34"/>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="31">
         <v>12</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="H11" s="34"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="56" t="s">
-        <v>138</v>
+      <c r="B12" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="C12" s="31">
         <v>12</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="56" t="s">
-        <v>142</v>
+      <c r="B13" s="31" t="s">
+        <v>182</v>
       </c>
       <c r="C13" s="31">
         <v>12</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="56" t="s">
-        <v>146</v>
+      <c r="B14" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="C14" s="31">
         <v>12</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="B15" s="31" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C15" s="31">
         <v>16</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="56" t="s">
-        <v>155</v>
+      <c r="B16" s="31" t="s">
+        <v>195</v>
       </c>
       <c r="C16" s="31">
         <v>12</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="56" t="s">
-        <v>160</v>
+      <c r="B17" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="C17" s="31">
         <v>16</v>
       </c>
-      <c r="D17" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>162</v>
+      <c r="D17" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="56" t="s">
-        <v>164</v>
+      <c r="B18" s="31" t="s">
+        <v>204</v>
       </c>
       <c r="C18" s="31">
         <v>12</v>
       </c>
-      <c r="D18" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>166</v>
+      <c r="D18" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>206</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" ht="14.25">
@@ -3048,7 +3372,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="38"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" ht="14.25">
       <c r="B20" s="22"/>
@@ -3056,22 +3380,22 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" ht="14.25">
       <c r="B21" s="22"/>
       <c r="D21" s="22"/>
-      <c r="H21" s="38"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="H22" s="38"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" ht="14.25"/>
     <row r="24" ht="14.25">
-      <c r="H24" s="38"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="C31" s="38"/>
+      <c r="C31" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -46,6 +46,12 @@
     <t>Magnetometer</t>
   </si>
   <si>
+    <t>KF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalman filter</t>
+  </si>
+  <si>
     <t>RPY</t>
   </si>
   <si>
@@ -206,42 +212,6 @@
   </si>
   <si>
     <t>0xA0</t>
-  </si>
-  <si>
-    <t>CMD_LED_RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red LED on/off</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0, 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0: off; 1: on</t>
-  </si>
-  <si>
-    <t>0xA1</t>
-  </si>
-  <si>
-    <t>CMD_LED_GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green LED on/off</t>
-  </si>
-  <si>
-    <t>0xA2</t>
-  </si>
-  <si>
-    <t>CMD_LED_BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue LED on/off</t>
-  </si>
-  <si>
-    <t>0xA3</t>
   </si>
   <si>
     <t>N</t>
@@ -266,20 +236,26 @@
     <t xml:space="preserve">Streaming data ID N</t>
   </si>
   <si>
-    <t>0xA4</t>
+    <t>0xA1</t>
   </si>
   <si>
     <t>CMD_STRM</t>
   </si>
   <si>
     <t xml:space="preserve">Streaming on/off</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1</t>
   </si>
   <si>
     <t xml:space="preserve">0: off; 1: on
 default: off</t>
   </si>
   <si>
-    <t>0xB1</t>
+    <t>0xA2</t>
   </si>
   <si>
     <t>CMD_ESC_PRTCL</t>
@@ -289,16 +265,19 @@
   </si>
   <si>
     <t xml:space="preserve">Refer to the ESC protocol list
-default: Standard PWM</t>
-  </si>
-  <si>
-    <t>0xB2</t>
+default: OneShot125</t>
+  </si>
+  <si>
+    <t>0xA3</t>
   </si>
   <si>
     <t>CMD_PWM</t>
   </si>
   <si>
     <t xml:space="preserve">PWM on/off</t>
+  </si>
+  <si>
+    <t>0xA4</t>
   </si>
   <si>
     <t>CMD_THROT</t>
@@ -326,6 +305,72 @@
     <t xml:space="preserve">Rear right throttle</t>
   </si>
   <si>
+    <t>0xD0</t>
+  </si>
+  <si>
+    <t>CMD_LED_RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red LED on/off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: off; 1: on</t>
+  </si>
+  <si>
+    <t>0xD1</t>
+  </si>
+  <si>
+    <t>CMD_LED_GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green LED on/off</t>
+  </si>
+  <si>
+    <t>0xD2</t>
+  </si>
+  <si>
+    <t>CMD_LED_BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue LED on/off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode List</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>MODE_INIT</t>
+  </si>
+  <si>
+    <t>Initialization</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>MODE_STANDBY</t>
+  </si>
+  <si>
+    <t>Standby</t>
+  </si>
+  <si>
+    <t>MODE_FLIGHT</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>MODE_EMER</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESC Protocol List</t>
   </si>
   <si>
@@ -338,9 +383,6 @@
     <t xml:space="preserve">Pulse Width (us)</t>
   </si>
   <si>
-    <t>0x00</t>
-  </si>
-  <si>
     <t>ESC_PRTCL_STD_PWM</t>
   </si>
   <si>
@@ -348,9 +390,6 @@
   </si>
   <si>
     <t xml:space="preserve">Standard PWM</t>
-  </si>
-  <si>
-    <t>0x01</t>
   </si>
   <si>
     <t>ESC_PRTCL_ONESHOT125</t>
@@ -529,13 +568,16 @@
     <t>Unit</t>
   </si>
   <si>
+    <t>0x10</t>
+  </si>
+  <si>
     <t>DAT_ACC</t>
   </si>
   <si>
-    <t>Acceleration</t>
-  </si>
-  <si>
-    <t>float[3]</t>
+    <t xml:space="preserve">X acceleration</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <r>
@@ -559,82 +601,130 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Y acceleration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z acceleration</t>
+  </si>
+  <si>
+    <t>0x11</t>
+  </si>
+  <si>
     <t>DAT_ANG</t>
   </si>
   <si>
-    <t xml:space="preserve">Angular velocity</t>
+    <t xml:space="preserve">X angular velocity</t>
   </si>
   <si>
     <t>rad/s</t>
   </si>
   <si>
+    <t xml:space="preserve">Y angular velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z angular velocity</t>
+  </si>
+  <si>
+    <t>0x12</t>
+  </si>
+  <si>
     <t>DAT_MAG</t>
   </si>
   <si>
-    <t xml:space="preserve">Magnetic field</t>
+    <t xml:space="preserve">X magnetic field</t>
   </si>
   <si>
     <t>mG</t>
   </si>
   <si>
-    <t>0x08</t>
+    <t xml:space="preserve">Y magnetic field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z magnetic field</t>
+  </si>
+  <si>
+    <t>0x18</t>
   </si>
   <si>
     <t>DAT_RAW_ACC</t>
   </si>
   <si>
-    <t xml:space="preserve">Raw acceleration</t>
+    <t xml:space="preserve">Raw X acceleration</t>
   </si>
   <si>
     <t xml:space="preserve">Raw ACC measurement without calibration in sensor frame</t>
   </si>
   <si>
-    <t>0x09</t>
+    <t xml:space="preserve">Raw Y acceleration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw Z acceleration</t>
+  </si>
+  <si>
+    <t>0x19</t>
   </si>
   <si>
     <t>DAT_RAW_ANG</t>
   </si>
   <si>
-    <t xml:space="preserve">Raw angular velocity</t>
+    <t xml:space="preserve">Raw X angular velocity</t>
   </si>
   <si>
     <t xml:space="preserve">Raw GYRO measurement without calibration in sensor frame</t>
   </si>
   <si>
-    <t>0x0A</t>
+    <t xml:space="preserve">Raw Y angular velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw Z angular velocity</t>
+  </si>
+  <si>
+    <t>0x1A</t>
   </si>
   <si>
     <t>DAT_RAW_MAG</t>
   </si>
   <si>
-    <t xml:space="preserve">Raw magnetic field</t>
+    <t xml:space="preserve">Raw X magnetic field</t>
   </si>
   <si>
     <t xml:space="preserve">Raw MAG measurement without calibration in sensor frame</t>
   </si>
   <si>
-    <t>0x10</t>
+    <t xml:space="preserve">Raw Y magnetic field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw Z magnetic field</t>
+  </si>
+  <si>
+    <t>0x20</t>
   </si>
   <si>
     <t>DAT_KF_QUAT</t>
   </si>
   <si>
-    <t xml:space="preserve">KF quaternion</t>
-  </si>
-  <si>
-    <t>float[4]</t>
+    <t xml:space="preserve">Real part of KF quaternion</t>
   </si>
   <si>
     <t xml:space="preserve">Kalman-filtered quaternion</t>
   </si>
   <si>
-    <t>0x11</t>
+    <t xml:space="preserve">i-term of KF quaternion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-term of KF quaternion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k-term of KF quaternion</t>
+  </si>
+  <si>
+    <t>0x21</t>
   </si>
   <si>
     <t>DAT_KF_RPY</t>
   </si>
   <si>
-    <t xml:space="preserve">KF RPY</t>
+    <t xml:space="preserve">KF roll</t>
   </si>
   <si>
     <t>rad</t>
@@ -643,28 +733,49 @@
     <t xml:space="preserve">Kalman-filtered RPY</t>
   </si>
   <si>
-    <t>0x18</t>
+    <t xml:space="preserve">KF pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KF yaw</t>
+  </si>
+  <si>
+    <t>0x28</t>
   </si>
   <si>
     <t>DAT_ACC_MAG_QUAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Quaternion measurment</t>
+    <t xml:space="preserve">Real part of measured quaternion</t>
   </si>
   <si>
     <t xml:space="preserve">Quaternion calculated from ACC and MAG measurements</t>
   </si>
   <si>
-    <t>0x19</t>
+    <t xml:space="preserve">i-term of measured quaternion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-term of measured quaternion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k-term of measured quaternion</t>
+  </si>
+  <si>
+    <t>0x29</t>
   </si>
   <si>
     <t>DAT_ACC_MAG_RPY</t>
   </si>
   <si>
-    <t xml:space="preserve">RPY measurement</t>
+    <t xml:space="preserve">Measured roll</t>
   </si>
   <si>
     <t xml:space="preserve">RPY calculated from ACC and MAG measurements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured yaw</t>
   </si>
 </sst>
 </file>
@@ -725,7 +836,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -937,11 +1048,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="73">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -949,6 +1080,10 @@
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1025,17 +1160,101 @@
     <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,77 +1262,23 @@
     <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1671,19 +1836,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8">
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1715,210 +1888,210 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>27</v>
+      <c r="G5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" ht="18">
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" ht="323.25">
-      <c r="B7" s="9">
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" ht="135.75">
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" ht="135.75">
-      <c r="B8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="H8" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" ht="18">
+      <c r="B10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="B9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" ht="18">
-      <c r="B10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="14"/>
+      <c r="E10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="14.25"/>
     <row r="13" ht="14.25">
-      <c r="B13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="16"/>
+      <c r="B14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="18"/>
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1928,48 +2101,48 @@
     </row>
     <row r="15" ht="14.25">
       <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="C15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+      <c r="C16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="C17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2000,653 +2173,759 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" style="22" width="9.140625"/>
-    <col customWidth="1" min="3" max="3" style="22" width="9.140625"/>
-    <col customWidth="1" min="4" max="4" style="22" width="24.00390625"/>
-    <col customWidth="1" min="5" max="5" style="22" width="22.8515625"/>
-    <col customWidth="1" min="6" max="7" style="22" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="22" width="54.8515625"/>
-    <col min="9" max="16384" style="22" width="9.140625"/>
+    <col min="1" max="2" style="24" width="9.140625"/>
+    <col customWidth="1" min="3" max="3" style="24" width="9.140625"/>
+    <col customWidth="1" min="4" max="4" style="24" width="24.00390625"/>
+    <col customWidth="1" min="5" max="5" style="24" width="22.8515625"/>
+    <col customWidth="1" min="6" max="7" style="24" width="9.140625"/>
+    <col customWidth="1" min="8" max="8" style="24" width="54.8515625"/>
+    <col min="9" max="16384" style="24" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="B2" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="C3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="26" t="s">
+      <c r="D10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="G10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" ht="28.5">
+      <c r="B15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="34">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="B5" s="9">
+      <c r="D15" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5">
+      <c r="B16" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="B8" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="B9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D16" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5">
+      <c r="B17" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="33">
+        <v>8</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="34">
+        <v>1</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="34">
+        <v>1</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="B28" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="B11" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="31">
-        <v>1</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="B12" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="31">
-        <v>1</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="B13" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="31">
-        <v>1</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="B14" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" ht="28.5">
-      <c r="B18" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="31">
-        <v>1</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5">
-      <c r="B19" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="31">
-        <v>1</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5">
-      <c r="B20" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="31">
-        <v>1</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="B21" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="31">
-        <v>8</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="B29" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="42" t="s">
+      <c r="B29" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="B36" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="14.25">
-      <c r="B30" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31" t="s">
+    <row r="37" ht="14.25">
+      <c r="B37" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="B31" s="31" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="48"/>
+      <c r="H37" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="B38" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="B32" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="B33" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="B34" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="45" t="s">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47" t="s">
+      <c r="E38" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="47" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="B35" s="31" t="s">
+      <c r="G38" s="48"/>
+      <c r="H38" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31" t="s">
+    </row>
+    <row r="39" ht="14.25">
+      <c r="B39" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E39" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="G39" s="48"/>
+      <c r="H39" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="47" t="s">
+    </row>
+    <row r="40" ht="14.25">
+      <c r="B40" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="E40" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="48"/>
+      <c r="H40" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="B41" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="48"/>
+      <c r="H41" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="B42" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="H42" s="41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="43">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:H28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="E29:H29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="E30:H30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="F42:G42"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2664,318 +2943,318 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" style="22" width="9.140625"/>
-    <col customWidth="1" min="4" max="4" style="22" width="13.7109375"/>
-    <col customWidth="1" min="5" max="5" style="22" width="18.28125"/>
-    <col min="6" max="7" style="22" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="48" width="54.8515625"/>
-    <col min="9" max="16384" style="22" width="9.140625"/>
+    <col min="1" max="3" style="24" width="9.140625"/>
+    <col customWidth="1" min="4" max="4" style="24" width="13.7109375"/>
+    <col customWidth="1" min="5" max="5" style="24" width="18.28125"/>
+    <col min="6" max="7" style="24" width="9.140625"/>
+    <col customWidth="1" min="8" max="8" style="49" width="54.8515625"/>
+    <col min="9" max="16384" style="24" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="B2" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="C3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="50" t="s">
+      <c r="F3" s="28" t="s">
         <v>19</v>
       </c>
+      <c r="G3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" ht="28.5">
-      <c r="B4" s="51">
+      <c r="B4" s="52">
         <v>0</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="52">
         <v>1</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>133</v>
+      <c r="D4" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="31">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="34">
         <v>1</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>136</v>
+      <c r="D5" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="48"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="16"/>
+      <c r="B9" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="18"/>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" ht="28.5" customHeight="1">
-      <c r="B10" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>142</v>
+      <c r="B10" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="20"/>
       <c r="D11" s="3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
+      <c r="F11" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
+      <c r="B13" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="B14" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="B15" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+        <v>171</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="48"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="49"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="48"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="49"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="48"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="48"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="48"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="49"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="48"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="49"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="48"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -3022,385 +3301,669 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" style="22" width="9.140625"/>
-    <col customWidth="1" min="4" max="4" style="22" width="22.8515625"/>
-    <col customWidth="1" min="5" max="5" style="22" width="27.421875"/>
-    <col customWidth="1" min="6" max="6" style="22" width="13.7109375"/>
-    <col min="7" max="7" style="22" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="48" width="64.00390625"/>
-    <col min="9" max="16384" style="22" width="9.140625"/>
+    <col min="1" max="3" style="24" width="9.140625"/>
+    <col customWidth="1" min="4" max="4" style="24" width="22.8515625"/>
+    <col customWidth="1" min="5" max="5" style="24" width="36.57421875"/>
+    <col customWidth="1" min="6" max="6" style="24" width="13.7109375"/>
+    <col min="7" max="7" style="24" width="9.140625"/>
+    <col customWidth="1" min="8" max="8" style="49" width="64.00390625"/>
+    <col min="9" max="16384" style="24" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="B2" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="C3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="50" t="s">
+      <c r="D8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="48"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="48"/>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="B7" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="B8" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>19</v>
+      <c r="G8" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="31">
+      <c r="A9" s="24"/>
+      <c r="B9" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="33">
         <v>12</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" s="34"/>
+      <c r="D9" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="B10" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="31">
+      <c r="A10" s="64"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="65"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="33">
         <v>12</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="B11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="31">
+      <c r="D12" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="33">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="31">
+      <c r="D15" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="B18" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="33">
         <v>12</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="B13" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="D18" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="67"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="68"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="33">
         <v>12</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="D21" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="B14" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="31">
+      <c r="G21" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="67"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="68"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="33">
         <v>12</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="B15" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="31">
+      <c r="D24" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="65"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="67"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="66"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="33">
         <v>16</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="B16" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="31">
+      <c r="D27" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="65"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="67"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="65"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="67"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="66"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="68"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="33">
         <v>12</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="B17" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="31">
+      <c r="D31" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="67"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="66"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="68"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="B34" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="33">
         <v>16</v>
       </c>
-      <c r="D17" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="B18" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="31">
+      <c r="D34" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="65"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="67"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="F36" s="65"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="67"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="66"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="68"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="B38" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="34">
         <v>12</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="48"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="48"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="B21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="H21" s="48"/>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="H22" s="48"/>
-    </row>
-    <row r="23" ht="14.25"/>
-    <row r="24" ht="14.25">
-      <c r="H24" s="48"/>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="C31" s="48"/>
+      <c r="D38" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="F39" s="62"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="62"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="B41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="H41" s="49"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="H42" s="49"/>
+    </row>
+    <row r="43" ht="14.25"/>
+    <row r="44" ht="14.25">
+      <c r="H44" s="49"/>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="C51" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="59">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" state="visible" r:id="rId1"/>
@@ -742,7 +742,7 @@
     <t>0x28</t>
   </si>
   <si>
-    <t>DAT_ACC_MAG_QUAT</t>
+    <t>DAT_MEAS_QUAT</t>
   </si>
   <si>
     <t xml:space="preserve">Real part of measured quaternion</t>
@@ -763,7 +763,7 @@
     <t>0x29</t>
   </si>
   <si>
-    <t>DAT_ACC_MAG_RPY</t>
+    <t>DAT_MEAS_RPY</t>
   </si>
   <si>
     <t xml:space="preserve">Measured roll</t>
@@ -1072,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1278,6 +1278,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3794,7 +3797,7 @@
       <c r="C34" s="33">
         <v>16</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="73" t="s">
         <v>233</v>
       </c>
       <c r="E34" s="71" t="s">
@@ -3850,7 +3853,7 @@
       <c r="C38" s="34">
         <v>12</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="62" t="s">
         <v>240</v>
       </c>
       <c r="E38" s="62" t="s">

--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -258,14 +258,29 @@
     <t>0xA2</t>
   </si>
   <si>
-    <t>CMD_ESC_PRTCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESC Protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refer to the ESC protocol list
-default: OneShot125</t>
+    <t>CMD_THROT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front left throttle</t>
+  </si>
+  <si>
+    <t>uint16_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -- 10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit: 0.01%
+default: All 0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front right throttle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rear left throttle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rear right throttle</t>
   </si>
   <si>
     <t>0xA3</t>
@@ -277,34 +292,6 @@
     <t xml:space="preserve">PWM on/off</t>
   </si>
   <si>
-    <t>0xA4</t>
-  </si>
-  <si>
-    <t>CMD_THROT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front left throttle</t>
-  </si>
-  <si>
-    <t>uint16_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 -- 10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit: 0.01%
-default: 0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front right throttle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rear left throttle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rear right throttle</t>
-  </si>
-  <si>
     <t>0xD0</t>
   </si>
   <si>
@@ -314,9 +301,6 @@
     <t xml:space="preserve">Red LED on/off</t>
   </si>
   <si>
-    <t xml:space="preserve">0: off; 1: on</t>
-  </si>
-  <si>
     <t>0xD1</t>
   </si>
   <si>
@@ -333,123 +317,6 @@
   </si>
   <si>
     <t xml:space="preserve">Blue LED on/off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode List</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>0x00</t>
-  </si>
-  <si>
-    <t>MODE_INIT</t>
-  </si>
-  <si>
-    <t>Initialization</t>
-  </si>
-  <si>
-    <t>0x01</t>
-  </si>
-  <si>
-    <t>MODE_STANDBY</t>
-  </si>
-  <si>
-    <t>Standby</t>
-  </si>
-  <si>
-    <t>MODE_FLIGHT</t>
-  </si>
-  <si>
-    <t>Flight</t>
-  </si>
-  <si>
-    <t>MODE_EMER</t>
-  </si>
-  <si>
-    <t>Emergency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESC Protocol List</t>
-  </si>
-  <si>
-    <t>Protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buad Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulse Width (us)</t>
-  </si>
-  <si>
-    <t>ESC_PRTCL_STD_PWM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 -- 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard PWM</t>
-  </si>
-  <si>
-    <t>ESC_PRTCL_ONESHOT125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125 -- 250</t>
-  </si>
-  <si>
-    <t>OneShot125</t>
-  </si>
-  <si>
-    <t>ESC_PRTCL_ONESHOT42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 -- 84</t>
-  </si>
-  <si>
-    <t>OneShot42</t>
-  </si>
-  <si>
-    <t>ESC_PRTCL_DSHOT150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150 kbps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0: 2.50; 1: 5.00</t>
-  </si>
-  <si>
-    <t>DShot150</t>
-  </si>
-  <si>
-    <t>0x04</t>
-  </si>
-  <si>
-    <t>ESC_PRTCL_DSHOT300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 kbps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0: 1.25; 1: 2.50</t>
-  </si>
-  <si>
-    <t>DShot300</t>
-  </si>
-  <si>
-    <t>0x05</t>
-  </si>
-  <si>
-    <t>ESC_PRTCL_DSHOT600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600 kbps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0: 0.625; 1: 1.25</t>
-  </si>
-  <si>
-    <t>DShot600</t>
   </si>
   <si>
     <t>RSP</t>
@@ -836,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -991,28 +858,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1053,6 +898,17 @@
         <color theme="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1072,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="65">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,10 +936,6 @@
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1184,61 +1036,61 @@
     <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,40 +1099,19 @@
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1839,10 +1670,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1891,210 +1722,210 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="18">
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" ht="323.25">
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" ht="135.75">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" ht="18">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" ht="14.25"/>
     <row r="13" ht="14.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
@@ -2106,46 +1937,46 @@
       <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2176,405 +2007,391 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" style="24" width="9.140625"/>
-    <col customWidth="1" min="3" max="3" style="24" width="9.140625"/>
-    <col customWidth="1" min="4" max="4" style="24" width="24.00390625"/>
-    <col customWidth="1" min="5" max="5" style="24" width="22.8515625"/>
-    <col customWidth="1" min="6" max="7" style="24" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="24" width="54.8515625"/>
-    <col min="9" max="16384" style="24" width="9.140625"/>
+    <col min="1" max="2" style="22" width="9.140625"/>
+    <col customWidth="1" min="3" max="3" style="22" width="9.140625"/>
+    <col customWidth="1" min="4" max="4" style="22" width="24.00390625"/>
+    <col customWidth="1" min="5" max="5" style="22" width="22.8515625"/>
+    <col customWidth="1" min="6" max="7" style="22" width="9.140625"/>
+    <col customWidth="1" min="8" max="8" style="22" width="54.8515625"/>
+    <col min="9" max="16384" style="22" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="34" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="34" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="34" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" ht="28.5">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="32">
         <v>1</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" ht="28.5">
-      <c r="B16" s="34" t="s">
+    <row r="16" ht="14.25">
+      <c r="B16" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="31">
+        <v>8</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" ht="28.5">
+      <c r="B20" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="32">
         <v>1</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5">
-      <c r="B17" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="34">
+      <c r="D20" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5">
+      <c r="B21" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="32">
         <v>1</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="34" t="s">
+      <c r="D21" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G21" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H21" s="41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
-      <c r="B18" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="33">
-        <v>8</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34" t="s">
+    <row r="22" ht="28.5">
+      <c r="B22" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="B22" s="34" t="s">
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="34">
+      <c r="E22" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5">
+      <c r="B23" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="32">
         <v>1</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="34" t="s">
+      <c r="D23" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G23" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="B23" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="34">
-        <v>1</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>76</v>
-      </c>
       <c r="H23" s="41" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="34">
-        <v>1</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>97</v>
-      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" ht="14.25">
       <c r="B25" s="42"/>
@@ -2583,7 +2400,7 @@
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" s="42"/>
@@ -2592,300 +2409,138 @@
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="B27" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="B28" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="B29" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="B30" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="B31" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="B32" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="B36" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="45" t="s">
-        <v>2</v>
-      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="B37" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="41" t="s">
-        <v>122</v>
-      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="B38" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="48"/>
-      <c r="H38" s="41" t="s">
-        <v>125</v>
-      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="B39" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="41" t="s">
-        <v>128</v>
-      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="B40" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="48"/>
-      <c r="H40" s="41" t="s">
-        <v>132</v>
-      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="B41" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="41" t="s">
-        <v>137</v>
-      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="B42" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="17">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B8:H8"/>
@@ -2897,38 +2552,12 @@
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2946,92 +2575,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" style="24" width="9.140625"/>
-    <col customWidth="1" min="4" max="4" style="24" width="13.7109375"/>
-    <col customWidth="1" min="5" max="5" style="24" width="18.28125"/>
-    <col min="6" max="7" style="24" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="49" width="54.8515625"/>
-    <col min="9" max="16384" style="24" width="9.140625"/>
+    <col min="1" max="3" style="22" width="9.140625"/>
+    <col customWidth="1" min="4" max="4" style="22" width="13.7109375"/>
+    <col customWidth="1" min="5" max="5" style="22" width="18.28125"/>
+    <col min="6" max="7" style="22" width="9.140625"/>
+    <col customWidth="1" min="8" max="8" style="43" width="54.8515625"/>
+    <col min="9" max="16384" style="22" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="28.5">
-      <c r="B4" s="52">
+      <c r="B4" s="46">
         <v>0</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="52" t="s">
+      <c r="D4" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>146</v>
+      <c r="G4" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="34">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="32">
         <v>1</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="34" t="s">
+      <c r="D5" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>149</v>
+      <c r="H5" s="37" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -3041,223 +2670,223 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="49"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="49"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="B8" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="18"/>
+      <c r="B9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" ht="28.5" customHeight="1">
-      <c r="B10" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>155</v>
+      <c r="B10" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="20"/>
+      <c r="B11" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="18"/>
       <c r="D11" s="3" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
+      <c r="F11" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="B13" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="B14" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="B15" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+        <v>127</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="49"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="49"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="49"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="49"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="49"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="49"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="43"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="49"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="49"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -3304,80 +2933,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" style="24" width="9.140625"/>
-    <col customWidth="1" min="4" max="4" style="24" width="22.8515625"/>
-    <col customWidth="1" min="5" max="5" style="24" width="36.57421875"/>
-    <col customWidth="1" min="6" max="6" style="24" width="13.7109375"/>
-    <col min="7" max="7" style="24" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="49" width="64.00390625"/>
-    <col min="9" max="16384" style="24" width="9.140625"/>
+    <col min="1" max="3" style="22" width="9.140625"/>
+    <col customWidth="1" min="4" max="4" style="22" width="22.8515625"/>
+    <col customWidth="1" min="5" max="5" style="22" width="36.57421875"/>
+    <col customWidth="1" min="6" max="6" style="22" width="13.7109375"/>
+    <col min="7" max="7" style="22" width="9.140625"/>
+    <col customWidth="1" min="8" max="8" style="43" width="64.00390625"/>
+    <col min="9" max="16384" style="22" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="59" t="s">
+      <c r="D4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="54" t="s">
-        <v>177</v>
+      <c r="H4" s="48" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="49"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" ht="14.25">
       <c r="B6" s="42"/>
@@ -3386,525 +3015,525 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="49"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="58"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="31">
+        <v>12</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="31">
+        <v>12</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="31">
+        <v>12</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="B18" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="31">
+        <v>12</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="60"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="61"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="31">
+        <v>12</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="60"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="61"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="31">
+        <v>12</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="60"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="61"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="31">
+        <v>16</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="B8" s="18" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="60"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="33" t="s">
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="61"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C31" s="31">
         <v>12</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D31" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E31" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F31" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="H31" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="39"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="62" t="s">
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="62" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="39"/>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="B12" s="33" t="s">
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="61"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="B34" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C34" s="31">
+        <v>16</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="60"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="60"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="61"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="B38" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="32">
         <v>12</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="63" t="s">
+      <c r="D38" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="B15" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="33">
-        <v>12</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="62" t="s">
+      <c r="H38" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="62" t="s">
+    </row>
+    <row r="39" ht="14.25">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="33" t="s">
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="37"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="33">
-        <v>12</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="67"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="68"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="B21" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="33">
-        <v>12</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="67"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="68"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="B24" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="33">
-        <v>12</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="67"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="68"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="B27" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="33">
-        <v>16</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="67"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="67"/>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="68"/>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="B31" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="33">
-        <v>12</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" s="65"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="67"/>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="F33" s="66"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="68"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="B34" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="33">
-        <v>16</v>
-      </c>
-      <c r="D34" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" s="71" t="s">
-        <v>234</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="67"/>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="67"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="68"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="B38" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="34">
-        <v>12</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="F38" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="F39" s="62"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="39"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="F40" s="62"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="39"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="B41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="H41" s="49"/>
+      <c r="B41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="H42" s="49"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" ht="14.25"/>
     <row r="44" ht="14.25">
-      <c r="H44" s="49"/>
+      <c r="H44" s="43"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="C51" s="49"/>
+      <c r="C51" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="59">

--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -441,10 +441,10 @@
     <t>DAT_ACC</t>
   </si>
   <si>
-    <t xml:space="preserve">X acceleration</t>
-  </si>
-  <si>
-    <t>float</t>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>float[3]</t>
   </si>
   <si>
     <r>
@@ -468,121 +468,76 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Y acceleration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z acceleration</t>
-  </si>
-  <si>
     <t>0x11</t>
   </si>
   <si>
     <t>DAT_ANG</t>
   </si>
   <si>
-    <t xml:space="preserve">X angular velocity</t>
+    <t xml:space="preserve">Angular velocity</t>
   </si>
   <si>
     <t>rad/s</t>
   </si>
   <si>
-    <t xml:space="preserve">Y angular velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z angular velocity</t>
-  </si>
-  <si>
     <t>0x12</t>
   </si>
   <si>
     <t>DAT_MAG</t>
   </si>
   <si>
-    <t xml:space="preserve">X magnetic field</t>
+    <t xml:space="preserve">Magnetic field</t>
   </si>
   <si>
     <t>mG</t>
   </si>
   <si>
-    <t xml:space="preserve">Y magnetic field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z magnetic field</t>
-  </si>
-  <si>
     <t>0x18</t>
   </si>
   <si>
     <t>DAT_RAW_ACC</t>
   </si>
   <si>
-    <t xml:space="preserve">Raw X acceleration</t>
+    <t xml:space="preserve">Raw acceleration</t>
   </si>
   <si>
     <t xml:space="preserve">Raw ACC measurement without calibration in sensor frame</t>
   </si>
   <si>
-    <t xml:space="preserve">Raw Y acceleration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw Z acceleration</t>
-  </si>
-  <si>
     <t>0x19</t>
   </si>
   <si>
     <t>DAT_RAW_ANG</t>
   </si>
   <si>
-    <t xml:space="preserve">Raw X angular velocity</t>
+    <t xml:space="preserve">Raw angular velocity</t>
   </si>
   <si>
     <t xml:space="preserve">Raw GYRO measurement without calibration in sensor frame</t>
   </si>
   <si>
-    <t xml:space="preserve">Raw Y angular velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw Z angular velocity</t>
-  </si>
-  <si>
     <t>0x1A</t>
   </si>
   <si>
     <t>DAT_RAW_MAG</t>
   </si>
   <si>
-    <t xml:space="preserve">Raw X magnetic field</t>
+    <t xml:space="preserve">Raw magnetic field</t>
   </si>
   <si>
     <t xml:space="preserve">Raw MAG measurement without calibration in sensor frame</t>
   </si>
   <si>
-    <t xml:space="preserve">Raw Y magnetic field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw Z magnetic field</t>
-  </si>
-  <si>
     <t>0x20</t>
   </si>
   <si>
     <t>DAT_KF_QUAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Real part of KF quaternion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kalman-filtered quaternion</t>
   </si>
   <si>
-    <t xml:space="preserve">i-term of KF quaternion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j-term of KF quaternion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k-term of KF quaternion</t>
+    <t>float[4]</t>
   </si>
   <si>
     <t>0x21</t>
@@ -591,58 +546,67 @@
     <t>DAT_KF_RPY</t>
   </si>
   <si>
-    <t xml:space="preserve">KF roll</t>
+    <t xml:space="preserve">Kalman-filtered roll, pitch, yaw</t>
   </si>
   <si>
     <t>rad</t>
   </si>
   <si>
-    <t xml:space="preserve">Kalman-filtered RPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF pitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF yaw</t>
-  </si>
-  <si>
     <t>0x28</t>
   </si>
   <si>
     <t>DAT_MEAS_QUAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Real part of measured quaternion</t>
+    <t xml:space="preserve">Measured quaternion</t>
   </si>
   <si>
     <t xml:space="preserve">Quaternion calculated from ACC and MAG measurements</t>
   </si>
   <si>
-    <t xml:space="preserve">i-term of measured quaternion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j-term of measured quaternion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k-term of measured quaternion</t>
-  </si>
-  <si>
     <t>0x29</t>
   </si>
   <si>
     <t>DAT_MEAS_RPY</t>
   </si>
   <si>
-    <t xml:space="preserve">Measured roll</t>
+    <t xml:space="preserve">Measured roll, pitch, yaw</t>
   </si>
   <si>
     <t xml:space="preserve">RPY calculated from ACC and MAG measurements</t>
   </si>
   <si>
-    <t xml:space="preserve">Measured pitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured yaw</t>
+    <t>0x30</t>
+  </si>
+  <si>
+    <t>DAT_COV_STATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covariance matrix of state estimate</t>
+  </si>
+  <si>
+    <t>float[4][4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row major order</t>
+  </si>
+  <si>
+    <t>0x31</t>
+  </si>
+  <si>
+    <t>DAT_COV_PROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covariance matrix of process noise</t>
+  </si>
+  <si>
+    <t>0x32</t>
+  </si>
+  <si>
+    <t>DAT_COV_MEAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covariance matrix of measurement noise</t>
   </si>
 </sst>
 </file>
@@ -703,7 +667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -904,31 +868,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1036,83 +980,74 @@
     <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2237,7 +2172,7 @@
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="31" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="31">
@@ -2255,7 +2190,7 @@
       <c r="G16" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="34" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2334,7 +2269,7 @@
       <c r="G21" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="37" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2357,7 +2292,7 @@
       <c r="G22" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="37" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2380,36 +2315,36 @@
       <c r="G23" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="37" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="22"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="22"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="22"/>
@@ -2579,7 +2514,7 @@
     <col customWidth="1" min="4" max="4" style="22" width="13.7109375"/>
     <col customWidth="1" min="5" max="5" style="22" width="18.28125"/>
     <col min="6" max="7" style="22" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="43" width="54.8515625"/>
+    <col customWidth="1" min="8" max="8" style="40" width="54.8515625"/>
     <col min="9" max="16384" style="22" width="9.140625"/>
   </cols>
   <sheetData>
@@ -2592,7 +2527,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="44"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" s="26" t="s">
@@ -2613,30 +2548,30 @@
       <c r="G3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="42" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="28.5">
-      <c r="B4" s="46">
+      <c r="B4" s="43">
         <v>0</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="43">
         <v>1</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="45" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2664,13 +2599,13 @@
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" ht="14.25">
       <c r="C7" s="22"/>
@@ -2678,7 +2613,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="43"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" s="15" t="s">
@@ -2700,7 +2635,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="46" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="29"/>
@@ -2715,13 +2650,13 @@
         <v>109</v>
       </c>
       <c r="E10" s="32"/>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="49" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2734,11 +2669,11 @@
         <v>113</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="22"/>
@@ -2750,26 +2685,26 @@
         <v>116</v>
       </c>
       <c r="E12" s="32"/>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="53"/>
+      <c r="F13" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" ht="14.25">
       <c r="B14" s="17" t="s">
@@ -2780,11 +2715,11 @@
         <v>122</v>
       </c>
       <c r="E14" s="32"/>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" ht="14.25">
       <c r="B15" s="17" t="s">
@@ -2795,11 +2730,11 @@
         <v>125</v>
       </c>
       <c r="E15" s="32"/>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" s="3" t="s">
@@ -2810,11 +2745,11 @@
         <v>128</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" s="22"/>
@@ -2823,7 +2758,7 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="43"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" s="22"/>
@@ -2832,7 +2767,7 @@
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="43"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" ht="14.25">
       <c r="B19" s="22"/>
@@ -2841,7 +2776,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="43"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" ht="14.25">
       <c r="B20" s="22"/>
@@ -2850,7 +2785,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="43"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" ht="14.25">
       <c r="B21" s="22"/>
@@ -2859,7 +2794,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="43"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" ht="14.25">
       <c r="B22" s="22"/>
@@ -2868,7 +2803,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="43"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" s="22"/>
@@ -2877,7 +2812,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="43"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" ht="14.25">
       <c r="B24" s="22"/>
@@ -2886,7 +2821,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="43"/>
+      <c r="H24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2927,7 +2862,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2938,7 +2873,7 @@
     <col customWidth="1" min="5" max="5" style="22" width="36.57421875"/>
     <col customWidth="1" min="6" max="6" style="22" width="13.7109375"/>
     <col min="7" max="7" style="22" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="43" width="64.00390625"/>
+    <col customWidth="1" min="8" max="8" style="40" width="64.00390625"/>
     <col min="9" max="16384" style="22" width="9.140625"/>
   </cols>
   <sheetData>
@@ -2951,7 +2886,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="44"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" s="26" t="s">
@@ -2972,7 +2907,7 @@
       <c r="G3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="42" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2992,10 +2927,10 @@
       <c r="F4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="45" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3006,16 +2941,16 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="43"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" s="15" t="s">
@@ -3026,7 +2961,7 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="58"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" s="16" t="s">
@@ -3047,7 +2982,7 @@
       <c r="G8" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="56" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3062,10 +2997,10 @@
       <c r="D9" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="58" t="s">
         <v>140</v>
       </c>
       <c r="G9" s="31" t="s">
@@ -3075,527 +3010,311 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="31">
+        <v>12</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>145</v>
+      </c>
       <c r="H10" s="37"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="31">
+        <v>12</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>149</v>
+      </c>
       <c r="H11" s="37"/>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C12" s="31">
         <v>12</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="31">
+        <v>12</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="31" t="s">
+      <c r="H13" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="31">
+        <v>12</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="32" t="s">
+      <c r="G14" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="37"/>
+      <c r="H14" s="34" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="B15" s="31" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C15" s="31">
+        <v>16</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="31">
         <v>12</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="31" t="s">
+      <c r="D16" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="31">
+      <c r="B17" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="31">
+        <v>16</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="32">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="31" t="s">
+      <c r="D18" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="60"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="61"/>
+      <c r="G18" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="32">
+        <v>64</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="32">
+        <v>64</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="31">
-        <v>12</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="60"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="61"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="B24" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="31">
-        <v>12</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="60"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="61"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="B27" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="31">
-        <v>16</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="31" t="s">
+      <c r="B21" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="32">
+        <v>64</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="34" t="s">
-        <v>177</v>
+      <c r="H21" s="61" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="60"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="60"/>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="61"/>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="B31" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="31">
-        <v>12</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="60"/>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="61"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="B34" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="31">
-        <v>16</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="60"/>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="60"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="61"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="B38" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="32">
-        <v>12</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="37"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="37"/>
+      <c r="C28" s="40"/>
     </row>
     <row r="41" ht="14.25">
       <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="H41" s="43"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" ht="14.25"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="40"/>
+    </row>
     <row r="44" ht="14.25">
-      <c r="H44" s="43"/>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="C51" s="43"/>
+      <c r="E44" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -607,6 +607,15 @@
   </si>
   <si>
     <t xml:space="preserve">Covariance matrix of measurement noise</t>
+  </si>
+  <si>
+    <t>0x38</t>
+  </si>
+  <si>
+    <t>DAT_HPF_ACC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-pass filtered acceleration</t>
   </si>
 </sst>
 </file>
@@ -872,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1034,20 +1043,14 @@
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2997,10 +3000,10 @@
       <c r="D9" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="31" t="s">
         <v>140</v>
       </c>
       <c r="G9" s="31" t="s">
@@ -3019,10 +3022,10 @@
       <c r="D10" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="31" t="s">
         <v>140</v>
       </c>
       <c r="G10" s="31" t="s">
@@ -3041,10 +3044,10 @@
       <c r="D11" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="31" t="s">
         <v>140</v>
       </c>
       <c r="G11" s="31" t="s">
@@ -3062,10 +3065,10 @@
       <c r="D12" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="31" t="s">
         <v>140</v>
       </c>
       <c r="G12" s="31" t="s">
@@ -3085,10 +3088,10 @@
       <c r="D13" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="31" t="s">
         <v>140</v>
       </c>
       <c r="G13" s="31" t="s">
@@ -3108,10 +3111,10 @@
       <c r="D14" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="31" t="s">
         <v>140</v>
       </c>
       <c r="G14" s="31" t="s">
@@ -3131,10 +3134,10 @@
       <c r="D15" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="31" t="s">
         <v>165</v>
       </c>
       <c r="G15" s="31" t="s">
@@ -3149,13 +3152,13 @@
       <c r="C16" s="31">
         <v>12</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="31" t="s">
         <v>140</v>
       </c>
       <c r="G16" s="31" t="s">
@@ -3170,13 +3173,13 @@
       <c r="C17" s="31">
         <v>16</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="31" t="s">
         <v>165</v>
       </c>
       <c r="G17" s="31" t="s">
@@ -3193,13 +3196,13 @@
       <c r="C18" s="32">
         <v>12</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="32" t="s">
         <v>140</v>
       </c>
       <c r="G18" s="32" t="s">
@@ -3210,85 +3213,100 @@
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="32" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="32">
         <v>64</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="37" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="32" t="s">
         <v>183</v>
       </c>
       <c r="C20" s="32">
         <v>64</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="37" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="32" t="s">
         <v>186</v>
       </c>
       <c r="C21" s="32">
         <v>64</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="37" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="28" ht="14.25">
-      <c r="C28" s="40"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="40"/>
+    <row r="22" ht="14.25">
+      <c r="B22" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="32">
+        <v>12</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="59"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="C29" s="40"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="22"/>
@@ -3309,7 +3327,16 @@
       <c r="H43" s="40"/>
     </row>
     <row r="44" ht="14.25">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="40"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="E45" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -616,6 +616,81 @@
   </si>
   <si>
     <t xml:space="preserve">High-pass filtered acceleration</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 1</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>0x41</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 2</t>
+  </si>
+  <si>
+    <t>0x42</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 3</t>
+  </si>
+  <si>
+    <t>0x43</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 4</t>
+  </si>
+  <si>
+    <t>0x44</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 5</t>
+  </si>
+  <si>
+    <t>0x45</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 6</t>
+  </si>
+  <si>
+    <t>0x46</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 7</t>
+  </si>
+  <si>
+    <t>0x47</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 8</t>
   </si>
 </sst>
 </file>
@@ -881,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,9 +1123,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2865,7 +2937,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3282,31 +3354,196 @@
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="32" t="s">
         <v>189</v>
       </c>
       <c r="C22" s="32">
         <v>12</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="32" t="s">
         <v>141</v>
       </c>
       <c r="H22" s="37"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="59"/>
+      <c r="B23" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="32">
+        <v>4</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="32">
+        <v>4</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="32">
+        <v>4</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="32">
+        <v>4</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="32">
+        <v>4</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="B28" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="32">
+        <v>4</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="C29" s="40"/>
+      <c r="B29" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="36">
+        <v>4</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="32">
+        <v>4</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" s="22"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="22"/>

--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -609,15 +609,6 @@
     <t xml:space="preserve">Covariance matrix of measurement noise</t>
   </si>
   <si>
-    <t>0x38</t>
-  </si>
-  <si>
-    <t>DAT_HPF_ACC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-pass filtered acceleration</t>
-  </si>
-  <si>
     <t>0x40</t>
   </si>
   <si>
@@ -691,6 +682,78 @@
   </si>
   <si>
     <t xml:space="preserve">RF received data channel 8</t>
+  </si>
+  <si>
+    <t>0x48</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 9</t>
+  </si>
+  <si>
+    <t>0x49</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 10</t>
+  </si>
+  <si>
+    <t>0x4A</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 11</t>
+  </si>
+  <si>
+    <t>0x4B</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 12</t>
+  </si>
+  <si>
+    <t>0x4C</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 13</t>
+  </si>
+  <si>
+    <t>0x4D</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 14</t>
+  </si>
+  <si>
+    <t>0x4E</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 15</t>
+  </si>
+  <si>
+    <t>0x4F</t>
+  </si>
+  <si>
+    <t>DAT_RF_CH16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF received data channel 16</t>
   </si>
 </sst>
 </file>
@@ -3354,41 +3417,41 @@
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="58" t="s">
         <v>189</v>
       </c>
       <c r="C22" s="32">
-        <v>12</v>
-      </c>
-      <c r="D22" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>141</v>
+      <c r="F22" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="H22" s="37"/>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" s="58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" s="32">
         <v>4</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F23" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G23" s="58" t="s">
         <v>34</v>
@@ -3409,7 +3472,7 @@
         <v>198</v>
       </c>
       <c r="F24" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>34</v>
@@ -3430,7 +3493,7 @@
         <v>201</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>34</v>
@@ -3451,7 +3514,7 @@
         <v>204</v>
       </c>
       <c r="F26" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>34</v>
@@ -3472,7 +3535,7 @@
         <v>207</v>
       </c>
       <c r="F27" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>34</v>
@@ -3483,7 +3546,7 @@
       <c r="B28" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="36">
         <v>4</v>
       </c>
       <c r="D28" s="58" t="s">
@@ -3493,7 +3556,7 @@
         <v>210</v>
       </c>
       <c r="F28" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G28" s="58" t="s">
         <v>34</v>
@@ -3504,7 +3567,7 @@
       <c r="B29" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="32">
         <v>4</v>
       </c>
       <c r="D29" s="58" t="s">
@@ -3514,7 +3577,7 @@
         <v>213</v>
       </c>
       <c r="F29" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G29" s="58" t="s">
         <v>34</v>
@@ -3525,7 +3588,7 @@
       <c r="B30" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="36">
         <v>4</v>
       </c>
       <c r="D30" s="58" t="s">
@@ -3535,15 +3598,192 @@
         <v>216</v>
       </c>
       <c r="F30" s="58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G30" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="37"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="B31" s="22"/>
+      <c r="B31" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="32">
+        <v>4</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="36">
+        <v>4</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="32">
+        <v>4</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="B34" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="36">
+        <v>4</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="B35" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="32">
+        <v>4</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="B36" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="36">
+        <v>4</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="36"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="B37" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="32">
+        <v>4</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="40"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="22"/>
@@ -3555,25 +3795,7 @@
       <c r="H42" s="40"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
       <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="40"/>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="40"/>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="E45" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -609,6 +609,9 @@
     <t xml:space="preserve">Covariance matrix of measurement noise</t>
   </si>
   <si>
+    <t>float[6][6]</t>
+  </si>
+  <si>
     <t>0x40</t>
   </si>
   <si>
@@ -762,29 +765,29 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri Light"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color indexed="2"/>
       <name val="Calibri Light"/>
-      <b/>
-      <color indexed="2"/>
-      <sz val="11.000000"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -1772,7 +1775,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2066,7 +2069,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2634,7 +2637,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2992,7 +2995,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3406,8 +3409,8 @@
       <c r="E21" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>181</v>
+      <c r="F21" s="58" t="s">
+        <v>189</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>34</v>
@@ -3417,337 +3420,337 @@
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="58" t="s">
-        <v>189</v>
+      <c r="B22" s="32" t="s">
+        <v>190</v>
       </c>
       <c r="C22" s="32">
         <v>4</v>
       </c>
-      <c r="D22" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="58" t="s">
+      <c r="D22" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="E22" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="F22" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H22" s="37"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="58" t="s">
-        <v>193</v>
+      <c r="B23" s="32" t="s">
+        <v>194</v>
       </c>
       <c r="C23" s="32">
         <v>4</v>
       </c>
-      <c r="D23" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="58" t="s">
+      <c r="D23" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="58" t="s">
+      <c r="E23" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="37"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="58" t="s">
-        <v>196</v>
+      <c r="B24" s="32" t="s">
+        <v>197</v>
       </c>
       <c r="C24" s="32">
         <v>4</v>
       </c>
-      <c r="D24" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="58" t="s">
+      <c r="D24" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F24" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="58" t="s">
+      <c r="E24" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="37"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="58" t="s">
-        <v>199</v>
+      <c r="B25" s="32" t="s">
+        <v>200</v>
       </c>
       <c r="C25" s="32">
         <v>4</v>
       </c>
-      <c r="D25" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="E25" s="58" t="s">
+      <c r="D25" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G25" s="58" t="s">
+      <c r="E25" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="37"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="B26" s="58" t="s">
-        <v>202</v>
+      <c r="B26" s="32" t="s">
+        <v>203</v>
       </c>
       <c r="C26" s="32">
         <v>4</v>
       </c>
-      <c r="D26" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" s="58" t="s">
+      <c r="D26" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="F26" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="58" t="s">
+      <c r="E26" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H26" s="37"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="B27" s="58" t="s">
-        <v>205</v>
+      <c r="B27" s="32" t="s">
+        <v>206</v>
       </c>
       <c r="C27" s="32">
         <v>4</v>
       </c>
-      <c r="D27" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" s="58" t="s">
+      <c r="D27" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G27" s="58" t="s">
+      <c r="E27" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H27" s="37"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="B28" s="58" t="s">
-        <v>208</v>
+      <c r="B28" s="32" t="s">
+        <v>209</v>
       </c>
       <c r="C28" s="36">
         <v>4</v>
       </c>
-      <c r="D28" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="58" t="s">
+      <c r="D28" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F28" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G28" s="58" t="s">
+      <c r="E28" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="37"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="B29" s="58" t="s">
-        <v>211</v>
+      <c r="B29" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="C29" s="32">
         <v>4</v>
       </c>
-      <c r="D29" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="58" t="s">
+      <c r="D29" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="F29" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G29" s="58" t="s">
+      <c r="E29" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H29" s="37"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="B30" s="58" t="s">
-        <v>214</v>
+      <c r="B30" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="C30" s="36">
         <v>4</v>
       </c>
-      <c r="D30" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="E30" s="58" t="s">
+      <c r="D30" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G30" s="58" t="s">
+      <c r="E30" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H30" s="36"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="B31" s="58" t="s">
-        <v>217</v>
+      <c r="B31" s="32" t="s">
+        <v>218</v>
       </c>
       <c r="C31" s="32">
         <v>4</v>
       </c>
-      <c r="D31" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="58" t="s">
+      <c r="D31" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="F31" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G31" s="58" t="s">
+      <c r="E31" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="36"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="B32" s="58" t="s">
-        <v>220</v>
+      <c r="B32" s="32" t="s">
+        <v>221</v>
       </c>
       <c r="C32" s="36">
         <v>4</v>
       </c>
-      <c r="D32" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" s="58" t="s">
+      <c r="D32" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="F32" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" s="58" t="s">
+      <c r="E32" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H32" s="36"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="B33" s="58" t="s">
-        <v>223</v>
+      <c r="B33" s="32" t="s">
+        <v>224</v>
       </c>
       <c r="C33" s="32">
         <v>4</v>
       </c>
-      <c r="D33" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="E33" s="58" t="s">
+      <c r="D33" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="F33" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G33" s="58" t="s">
+      <c r="E33" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="36"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="B34" s="58" t="s">
-        <v>226</v>
+      <c r="B34" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="C34" s="36">
         <v>4</v>
       </c>
-      <c r="D34" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="E34" s="58" t="s">
+      <c r="D34" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="F34" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G34" s="58" t="s">
+      <c r="E34" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H34" s="36"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="B35" s="58" t="s">
-        <v>229</v>
+      <c r="B35" s="32" t="s">
+        <v>230</v>
       </c>
       <c r="C35" s="32">
         <v>4</v>
       </c>
-      <c r="D35" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="58" t="s">
+      <c r="D35" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="F35" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G35" s="58" t="s">
+      <c r="E35" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H35" s="36"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="B36" s="58" t="s">
-        <v>232</v>
+      <c r="B36" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="C36" s="36">
         <v>4</v>
       </c>
-      <c r="D36" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" s="58" t="s">
+      <c r="D36" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F36" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G36" s="58" t="s">
+      <c r="E36" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="36"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="B37" s="58" t="s">
-        <v>235</v>
+      <c r="B37" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="C37" s="32">
         <v>4</v>
       </c>
-      <c r="D37" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" s="58" t="s">
+      <c r="D37" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="F37" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G37" s="58" t="s">
+      <c r="E37" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H37" s="36"/>
@@ -3804,7 +3807,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Document/Protocol.xlsx
+++ b/Document/Protocol.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t xml:space="preserve">Abbreviation List</t>
   </si>
@@ -401,6 +401,18 @@
   </si>
   <si>
     <t xml:space="preserve">Current mode</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>DAT_TICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current tick</t>
+  </si>
+  <si>
+    <t>uint32_t</t>
   </si>
   <si>
     <t>0x10</t>
@@ -2804,45 +2816,44 @@
       <c r="H11" s="59"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="37">
-        <v>12</v>
-      </c>
-      <c r="D12" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="35"/>
+      <c r="G12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="24"/>
       <c r="B13" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="37">
         <v>12</v>
       </c>
       <c r="D13" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="F13" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="37" t="s">
         <v>135</v>
       </c>
       <c r="H13" s="35"/>
@@ -2862,14 +2873,15 @@
         <v>138</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>139</v>
       </c>
       <c r="H14" s="35"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25">
+      <c r="A15" s="24"/>
       <c r="B15" s="37" t="s">
         <v>140</v>
       </c>
@@ -2883,16 +2895,14 @@
         <v>142</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="36" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" ht="14.25">
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="37" t="s">
         <v>144</v>
       </c>
@@ -2906,7 +2916,7 @@
         <v>146</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>135</v>
@@ -2929,9 +2939,9 @@
         <v>150</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="37" t="s">
         <v>139</v>
       </c>
       <c r="H17" s="60" t="s">
@@ -2943,7 +2953,7 @@
         <v>152</v>
       </c>
       <c r="C18" s="37">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>153</v>
@@ -2952,31 +2962,33 @@
         <v>154</v>
       </c>
       <c r="F18" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="60"/>
     </row>
     <row r="19" ht="14.25">
       <c r="B19" s="37" t="s">
         <v>156</v>
       </c>
       <c r="C19" s="37">
-        <v>12</v>
-      </c>
-      <c r="D19" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>157</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>158</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="H19" s="60"/>
     </row>
@@ -2985,44 +2997,42 @@
         <v>160</v>
       </c>
       <c r="C20" s="37">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="34" t="s">
         <v>162</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="G20" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="60"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="37">
+        <v>16</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="B21" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="34">
-        <v>12</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="60" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3031,7 +3041,7 @@
         <v>168</v>
       </c>
       <c r="C22" s="34">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>169</v>
@@ -3039,68 +3049,82 @@
       <c r="E22" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="35" t="s">
         <v>171</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="34">
         <v>40</v>
       </c>
       <c r="D23" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="F23" s="33" t="s">
         <v>175</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>171</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="B24" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24" s="34">
-        <v>32</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>177</v>
+        <v>40</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="43" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="40"/>
+      <c r="B25" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="34">
+        <v>32</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" s="24"/>
